--- a/source/QA_Converted_Files/FailedNodes_Details.xlsx
+++ b/source/QA_Converted_Files/FailedNodes_Details.xlsx
@@ -149,349 +149,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="n" s="0">
         <v>6.0</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="n" s="0">
         <v>7.0</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="n" s="0">
         <v>8.0</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="n" s="0">
         <v>9.0</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="n" s="0">
         <v>10.0</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="n" s="0">
         <v>11.0</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="n" s="0">
         <v>12.0</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="n" s="0">
         <v>13.0</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="n" s="0">
         <v>14.0</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="n" s="0">
         <v>15.0</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="n" s="0">
         <v>16.0</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="n" s="0">
         <v>17.0</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="n" s="0">
         <v>18.0</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="n" s="0">
         <v>19.0</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>13</v>
       </c>
     </row>
